--- a/biology/Virologie/Virgaviridae/Virgaviridae.xlsx
+++ b/biology/Virologie/Virgaviridae/Virgaviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Virgaviridae sont une famille de  phytovirus à ARN  à simple brin à polarité positive.
 Ces virus sont rattachés à la classe IV de la classification Baltimore. 
-Cette famille a été créée en 2008 pour regrouper six genres jusqu'alors non rattachés à une famille. Elle regroupe tous les virus de plantes en bâtonnets, à l'exception du genre Benyvirus dont les membres sont plus éloignés selon l'analyse phylogénétique de la polymérase, et différents par leur génome polyadénylé. Le nom de la famille est dérivé du latin virga, « baguette », en référence à la forme des particules virales[2].
+Cette famille a été créée en 2008 pour regrouper six genres jusqu'alors non rattachés à une famille. Elle regroupe tous les virus de plantes en bâtonnets, à l'exception du genre Benyvirus dont les membres sont plus éloignés selon l'analyse phylogénétique de la polymérase, et différents par leur génome polyadénylé. Le nom de la famille est dérivé du latin virga, « baguette », en référence à la forme des particules virales.
 Le génome est selon les genres mono-, bi- ou tripartite. 
 Les virions sont constitués d'une capside non-enveloppée, en forme de bâtonnet à symétrie hélicoïdale, d'un diamètre de 20 nm environ.
 La famille des Virgaviridae comprend les six genres suivants :
